--- a/biology/Botanique/Kanzi_(pomme)/Kanzi_(pomme).xlsx
+++ b/biology/Botanique/Kanzi_(pomme)/Kanzi_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kanzi est une marque protégée utilisée en connexion avec un cultivar de pommier domestique qui s'appelle Nicoter (nom de variété).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pomme appropriée à l'agriculture intensive.
 Chair : croquante et juteuse
@@ -545,7 +559,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pépinière Johan Nicolai, Saint-Trond, Belgique
 </t>
@@ -576,7 +592,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Croisement de deux autres cultivars réputés de l'agriculture intensive: Gala x Braeburn.
 </t>
@@ -607,7 +625,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Maturité : quelques jours avant Golden Delicious
 </t>
@@ -638,7 +658,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Chancre : assez susceptible</t>
         </is>
